--- a/MonteCarloResultsBUS6Sub2MLoadCurveDERS.xlsx
+++ b/MonteCarloResultsBUS6Sub2MLoadCurveDERS.xlsx
@@ -148,10 +148,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(38.46327766636667, 42.07226653737484)</t>
-  </si>
-  <si>
-    <t>(37.89615084377967, 42.639393359961836)</t>
+    <t>(38.18033471302274, 41.49317846476236)</t>
+  </si>
+  <si>
+    <t>(37.65974498060651, 42.013768197178585)</t>
   </si>
 </sst>
 </file>
@@ -588,28 +588,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.798066401150377</v>
+        <v>7.277830834687032</v>
       </c>
       <c r="G2">
-        <v>2530</v>
+        <v>2937</v>
       </c>
       <c r="H2">
-        <v>5.769952688914429</v>
+        <v>5.602715531912625</v>
       </c>
       <c r="I2">
-        <v>1.351495726495727</v>
+        <v>1.298982750995135</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>198.6698717948718</v>
+        <v>190.9504643962848</v>
       </c>
       <c r="L2">
-        <v>1146.315760969105</v>
+        <v>1069.841132698994</v>
       </c>
       <c r="M2">
-        <v>848.183045270421</v>
+        <v>823.5991831911558</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -629,28 +629,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.650152878794639</v>
+        <v>7.338183018174249</v>
       </c>
       <c r="G3">
-        <v>2521</v>
+        <v>2938</v>
       </c>
       <c r="H3">
-        <v>5.680716457399272</v>
+        <v>5.647253847546622</v>
       </c>
       <c r="I3">
-        <v>1.346688034188034</v>
+        <v>1.299425033171163</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>169.6826923076923</v>
+        <v>163.7275541795666</v>
       </c>
       <c r="L3">
-        <v>963.9192627281245</v>
+        <v>924.6110602899553</v>
       </c>
       <c r="M3">
-        <v>715.7702736323082</v>
+        <v>711.5539847908744</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -670,28 +670,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.754256842359543</v>
+        <v>7.345777214604732</v>
       </c>
       <c r="G4">
-        <v>2523</v>
+        <v>2943</v>
       </c>
       <c r="H4">
-        <v>5.753455730835142</v>
+        <v>5.643493809793171</v>
       </c>
       <c r="I4">
-        <v>1.34775641025641</v>
+        <v>1.301636444051305</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.34775641025641</v>
+        <v>1.301636444051305</v>
       </c>
       <c r="L4">
-        <v>7.754256842359543</v>
+        <v>7.345777214604732</v>
       </c>
       <c r="M4">
-        <v>5.753455730835142</v>
+        <v>5.643493809793171</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -711,28 +711,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.669249711373289</v>
+        <v>7.339855710347033</v>
       </c>
       <c r="G5">
-        <v>2521</v>
+        <v>2948</v>
       </c>
       <c r="H5">
-        <v>5.694897048667511</v>
+        <v>5.629380515975115</v>
       </c>
       <c r="I5">
-        <v>1.346688034188034</v>
+        <v>1.303847854931446</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.346688034188034</v>
+        <v>1.303847854931446</v>
       </c>
       <c r="L5">
-        <v>7.669249711373289</v>
+        <v>7.339855710347033</v>
       </c>
       <c r="M5">
-        <v>5.694897048667511</v>
+        <v>5.629380515975115</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -752,28 +752,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>8.678369433643571</v>
+        <v>8.146739711310651</v>
       </c>
       <c r="G6">
-        <v>2525</v>
+        <v>2934</v>
       </c>
       <c r="H6">
-        <v>6.43402280387357</v>
+        <v>6.278043110863457</v>
       </c>
       <c r="I6">
-        <v>1.348824786324786</v>
+        <v>1.29765590446705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>178.0448717948718</v>
+        <v>171.2905793896506</v>
       </c>
       <c r="L6">
-        <v>1145.544765240951</v>
+        <v>1075.369641893006</v>
       </c>
       <c r="M6">
-        <v>849.2910101113113</v>
+        <v>828.7016906339763</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,28 +793,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.978247647070939</v>
+        <v>8.392871508974606</v>
       </c>
       <c r="G7">
-        <v>2589</v>
+        <v>2991</v>
       </c>
       <c r="H7">
-        <v>6.491803628936577</v>
+        <v>6.344460876560208</v>
       </c>
       <c r="I7">
-        <v>1.38301282051282</v>
+        <v>1.322865988500664</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>203.3028846153846</v>
+        <v>194.4613003095975</v>
       </c>
       <c r="L7">
-        <v>1319.802404119428</v>
+        <v>1233.752111819267</v>
       </c>
       <c r="M7">
-        <v>954.2951334536767</v>
+        <v>932.6357488543506</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -834,28 +834,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.959630797184227</v>
+        <v>8.449436424506292</v>
       </c>
       <c r="G8">
-        <v>2588</v>
+        <v>3007</v>
       </c>
       <c r="H8">
-        <v>6.480845769833413</v>
+        <v>6.353234371735526</v>
       </c>
       <c r="I8">
-        <v>1.382478632478632</v>
+        <v>1.329942503317116</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.382478632478632</v>
+        <v>1.329942503317116</v>
       </c>
       <c r="L8">
-        <v>8.959630797184227</v>
+        <v>8.449436424506292</v>
       </c>
       <c r="M8">
-        <v>6.480845769833413</v>
+        <v>6.353234371735526</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -875,28 +875,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>8.619291391662006</v>
+        <v>8.308972040212121</v>
       </c>
       <c r="G9">
-        <v>2524</v>
+        <v>2946</v>
       </c>
       <c r="H9">
-        <v>6.392754946589253</v>
+        <v>6.376980917487985</v>
       </c>
       <c r="I9">
-        <v>1.348290598290598</v>
+        <v>1.30296329057939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>106.5149572649573</v>
+        <v>102.9340999557718</v>
       </c>
       <c r="L9">
-        <v>680.9240199412985</v>
+        <v>656.4087911767575</v>
       </c>
       <c r="M9">
-        <v>505.027640780551</v>
+        <v>503.7814924815508</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -916,28 +916,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10.3403111250595</v>
+        <v>10.33986683513122</v>
       </c>
       <c r="G10">
-        <v>2581</v>
+        <v>2997</v>
       </c>
       <c r="H10">
-        <v>7.499830463429439</v>
+        <v>7.800613584995561</v>
       </c>
       <c r="I10">
-        <v>1.378739316239316</v>
+        <v>1.325519681556833</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.378739316239316</v>
+        <v>1.325519681556833</v>
       </c>
       <c r="L10">
-        <v>10.3403111250595</v>
+        <v>10.33986683513122</v>
       </c>
       <c r="M10">
-        <v>7.499830463429439</v>
+        <v>7.800613584995561</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -957,28 +957,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>10.12072683026763</v>
+        <v>10.17095399398047</v>
       </c>
       <c r="G11">
-        <v>2522</v>
+        <v>2936</v>
       </c>
       <c r="H11">
-        <v>7.512292080198655</v>
+        <v>7.832604557353489</v>
       </c>
       <c r="I11">
-        <v>1.347222222222222</v>
+        <v>1.298540468819107</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>102.3888888888889</v>
+        <v>98.68907563025211</v>
       </c>
       <c r="L11">
-        <v>769.1752391003401</v>
+        <v>772.9925035425159</v>
       </c>
       <c r="M11">
-        <v>570.9341980950978</v>
+        <v>595.2779463588652</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -998,28 +998,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.74226293748825</v>
+        <v>10.38242590916942</v>
       </c>
       <c r="G12">
-        <v>2809</v>
+        <v>3253</v>
       </c>
       <c r="H12">
-        <v>7.158959138119615</v>
+        <v>7.216312628537371</v>
       </c>
       <c r="I12">
-        <v>1.500534188034188</v>
+        <v>1.43874391862008</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>118.5422008547009</v>
+        <v>113.6607695709863</v>
       </c>
       <c r="L12">
-        <v>848.6387720615716</v>
+        <v>820.2116468243845</v>
       </c>
       <c r="M12">
-        <v>565.5577719114495</v>
+        <v>570.0886976544523</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1039,28 +1039,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.79133256040991</v>
+        <v>10.35474506092288</v>
       </c>
       <c r="G13">
-        <v>2805</v>
+        <v>3243</v>
       </c>
       <c r="H13">
-        <v>7.201916061706721</v>
+        <v>7.219265674605809</v>
       </c>
       <c r="I13">
-        <v>1.498397435897436</v>
+        <v>1.434321096859797</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>113.8782051282051</v>
+        <v>109.0084033613445</v>
       </c>
       <c r="L13">
-        <v>820.1412745911532</v>
+        <v>786.960624630139</v>
       </c>
       <c r="M13">
-        <v>547.3456206897108</v>
+        <v>548.6641912700414</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1080,28 +1080,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.59822886925299</v>
+        <v>11.35741011934108</v>
       </c>
       <c r="G14">
-        <v>3009</v>
+        <v>3533</v>
       </c>
       <c r="H14">
-        <v>7.21564787080146</v>
+        <v>7.268356716623321</v>
       </c>
       <c r="I14">
-        <v>1.607371794871795</v>
+        <v>1.562582927908005</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.607371794871795</v>
+        <v>1.562582927908005</v>
       </c>
       <c r="L14">
-        <v>11.59822886925299</v>
+        <v>11.35741011934108</v>
       </c>
       <c r="M14">
-        <v>7.21564787080146</v>
+        <v>7.268356716623321</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1121,28 +1121,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.09406531447605</v>
+        <v>10.3061842301787</v>
       </c>
       <c r="G15">
-        <v>3058</v>
+        <v>3651</v>
       </c>
       <c r="H15">
-        <v>6.179231611739427</v>
+        <v>6.382438385218858</v>
       </c>
       <c r="I15">
-        <v>1.633547008547009</v>
+        <v>1.614772224679345</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>129.0502136752137</v>
+        <v>127.5670057496683</v>
       </c>
       <c r="L15">
-        <v>797.431159843608</v>
+        <v>814.1885541841176</v>
       </c>
       <c r="M15">
-        <v>488.1592973274147</v>
+        <v>504.2126324322898</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1162,28 +1162,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.40588866466832</v>
+        <v>10.49999450621463</v>
       </c>
       <c r="G16">
-        <v>3125</v>
+        <v>3713</v>
       </c>
       <c r="H16">
-        <v>6.233543545682913</v>
+        <v>6.393882999879149</v>
       </c>
       <c r="I16">
-        <v>1.669337606837607</v>
+        <v>1.6421937195931</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.669337606837607</v>
+        <v>1.6421937195931</v>
       </c>
       <c r="L16">
-        <v>10.40588866466832</v>
+        <v>10.49999450621463</v>
       </c>
       <c r="M16">
-        <v>6.233543545682913</v>
+        <v>6.393882999879149</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>10.2107495698704</v>
+        <v>10.36260656644125</v>
       </c>
       <c r="G17">
-        <v>3055</v>
+        <v>3653</v>
       </c>
       <c r="H17">
-        <v>6.256799736431227</v>
+        <v>6.413866259710831</v>
       </c>
       <c r="I17">
-        <v>1.631944444444444</v>
+        <v>1.615656789031402</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>124.0277777777778</v>
+        <v>122.7899159663865</v>
       </c>
       <c r="L17">
-        <v>776.0169673101508</v>
+        <v>787.5580990495349</v>
       </c>
       <c r="M17">
-        <v>475.5167799687733</v>
+        <v>487.4538357380231</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1244,28 +1244,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>10.03530096793609</v>
+        <v>10.28541348685198</v>
       </c>
       <c r="G18">
-        <v>3049</v>
+        <v>3647</v>
       </c>
       <c r="H18">
-        <v>6.161391738923042</v>
+        <v>6.37656152831706</v>
       </c>
       <c r="I18">
-        <v>1.628739316239316</v>
+        <v>1.613003095975232</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.628739316239316</v>
+        <v>1.613003095975232</v>
       </c>
       <c r="L18">
-        <v>10.03530096793609</v>
+        <v>10.28541348685198</v>
       </c>
       <c r="M18">
-        <v>6.161391738923042</v>
+        <v>6.37656152831706</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1285,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.17152571859215</v>
+        <v>11.38345753309828</v>
       </c>
       <c r="G19">
-        <v>3316</v>
+        <v>3987</v>
       </c>
       <c r="H19">
-        <v>6.30672380735962</v>
+        <v>6.455479679542314</v>
       </c>
       <c r="I19">
-        <v>1.771367521367521</v>
+        <v>1.763379035824856</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.771367521367521</v>
+        <v>1.763379035824856</v>
       </c>
       <c r="L19">
-        <v>11.17152571859215</v>
+        <v>11.38345753309828</v>
       </c>
       <c r="M19">
-        <v>6.30672380735962</v>
+        <v>6.455479679542314</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1326,28 +1326,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>12.04838512852614</v>
+        <v>11.97047365771821</v>
       </c>
       <c r="G20">
-        <v>3129</v>
+        <v>3715</v>
       </c>
       <c r="H20">
-        <v>7.208238082646512</v>
+        <v>7.285394600296329</v>
       </c>
       <c r="I20">
-        <v>1.671474358974359</v>
+        <v>1.643078283945157</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>132.0464743589744</v>
+        <v>129.8031844316674</v>
       </c>
       <c r="L20">
-        <v>951.8224251535651</v>
+        <v>945.6674189597383</v>
       </c>
       <c r="M20">
-        <v>569.4508085290744</v>
+        <v>575.54617342341</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>12.21930178788076</v>
+        <v>12.14361176300139</v>
       </c>
       <c r="G21">
-        <v>3170</v>
+        <v>3777</v>
       </c>
       <c r="H21">
-        <v>7.215940992716968</v>
+        <v>7.269448291275123</v>
       </c>
       <c r="I21">
-        <v>1.693376068376068</v>
+        <v>1.670499778858912</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.693376068376068</v>
+        <v>1.670499778858912</v>
       </c>
       <c r="L21">
-        <v>12.21930178788076</v>
+        <v>12.14361176300139</v>
       </c>
       <c r="M21">
-        <v>7.215940992716968</v>
+        <v>7.269448291275123</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1408,28 +1408,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>11.97102967859582</v>
+        <v>11.96337606491591</v>
       </c>
       <c r="G22">
-        <v>3127</v>
+        <v>3707</v>
       </c>
       <c r="H22">
-        <v>7.166539033684483</v>
+        <v>7.296788044989174</v>
       </c>
       <c r="I22">
-        <v>1.670405982905983</v>
+        <v>1.639540026536931</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.670405982905983</v>
+        <v>1.639540026536931</v>
       </c>
       <c r="L22">
-        <v>11.97102967859582</v>
+        <v>11.96337606491591</v>
       </c>
       <c r="M22">
-        <v>7.166539033684483</v>
+        <v>7.296788044989174</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1449,28 +1449,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>11.99694675371277</v>
+        <v>11.95846416864866</v>
       </c>
       <c r="G23">
-        <v>3122</v>
+        <v>3709</v>
       </c>
       <c r="H23">
-        <v>7.193556797870053</v>
+        <v>7.289859122489786</v>
       </c>
       <c r="I23">
-        <v>1.667735042735043</v>
+        <v>1.640424590888987</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>126.7478632478633</v>
+        <v>124.672268907563</v>
       </c>
       <c r="L23">
-        <v>911.7679532821705</v>
+        <v>908.843276817298</v>
       </c>
       <c r="M23">
-        <v>546.710316638124</v>
+        <v>554.0292933092237</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1490,28 +1490,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>13.14835657195657</v>
+        <v>12.9492694175518</v>
       </c>
       <c r="G24">
-        <v>3378</v>
+        <v>3998</v>
       </c>
       <c r="H24">
-        <v>7.286478242363141</v>
+        <v>7.32323615634933</v>
       </c>
       <c r="I24">
-        <v>1.80448717948718</v>
+        <v>1.768244139761168</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.80448717948718</v>
+        <v>1.768244139761168</v>
       </c>
       <c r="L24">
-        <v>13.14835657195657</v>
+        <v>12.9492694175518</v>
       </c>
       <c r="M24">
-        <v>7.286478242363141</v>
+        <v>7.32323615634933</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1528,25 +1528,25 @@
         <v>1183</v>
       </c>
       <c r="K25">
-        <v>1.454097759571132</v>
+        <v>1.408685554570629</v>
       </c>
       <c r="L25">
-        <v>9.506993309447445</v>
+        <v>9.222706957701837</v>
       </c>
       <c r="M25">
-        <v>6.538070254816576</v>
+        <v>6.547030263622559</v>
       </c>
       <c r="N25">
-        <v>40.26777210187073</v>
+        <v>39.83675658889262</v>
       </c>
       <c r="O25">
-        <v>1872</v>
+        <v>2261</v>
       </c>
       <c r="P25">
         <v>0.02</v>
       </c>
       <c r="Q25">
-        <v>0.02286345576677238</v>
+        <v>0.02121440785693962</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>

--- a/MonteCarloResultsBUS6Sub2MLoadCurveDERS.xlsx
+++ b/MonteCarloResultsBUS6Sub2MLoadCurveDERS.xlsx
@@ -148,10 +148,10 @@
     <t>farm</t>
   </si>
   <si>
-    <t>(38.18033471302274, 41.49317846476236)</t>
-  </si>
-  <si>
-    <t>(37.65974498060651, 42.013768197178585)</t>
+    <t>(36.66742593472184, 39.99263832906015)</t>
+  </si>
+  <si>
+    <t>(36.144892558468676, 40.515171705313314)</t>
   </si>
 </sst>
 </file>
@@ -588,28 +588,28 @@
         <v>147</v>
       </c>
       <c r="F2">
-        <v>7.277830834687032</v>
+        <v>7.33081197184752</v>
       </c>
       <c r="G2">
-        <v>2937</v>
+        <v>2576</v>
       </c>
       <c r="H2">
-        <v>5.602715531912625</v>
+        <v>5.603404026617922</v>
       </c>
       <c r="I2">
-        <v>1.298982750995135</v>
+        <v>1.308278313864906</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>190.9504643962848</v>
+        <v>192.3169121381412</v>
       </c>
       <c r="L2">
-        <v>1069.841132698994</v>
+        <v>1077.629359861585</v>
       </c>
       <c r="M2">
-        <v>823.5991831911558</v>
+        <v>823.7003919128346</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -629,28 +629,28 @@
         <v>126</v>
       </c>
       <c r="F3">
-        <v>7.338183018174249</v>
+        <v>7.361946142576831</v>
       </c>
       <c r="G3">
-        <v>2938</v>
+        <v>2576</v>
       </c>
       <c r="H3">
-        <v>5.647253847546622</v>
+        <v>5.627201845781746</v>
       </c>
       <c r="I3">
-        <v>1.299425033171163</v>
+        <v>1.308278313864906</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>163.7275541795666</v>
+        <v>164.8430675469782</v>
       </c>
       <c r="L3">
-        <v>924.6110602899553</v>
+        <v>927.6052139646807</v>
       </c>
       <c r="M3">
-        <v>711.5539847908744</v>
+        <v>709.0274325685</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -670,28 +670,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.345777214604732</v>
+        <v>7.275951325741487</v>
       </c>
       <c r="G4">
-        <v>2943</v>
+        <v>2564</v>
       </c>
       <c r="H4">
-        <v>5.643493809793171</v>
+        <v>5.587499282521446</v>
       </c>
       <c r="I4">
-        <v>1.301636444051305</v>
+        <v>1.302183849669883</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.301636444051305</v>
+        <v>1.302183849669883</v>
       </c>
       <c r="L4">
-        <v>7.345777214604732</v>
+        <v>7.275951325741487</v>
       </c>
       <c r="M4">
-        <v>5.643493809793171</v>
+        <v>5.587499282521446</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -711,28 +711,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>7.339855710347033</v>
+        <v>7.345647212544989</v>
       </c>
       <c r="G5">
-        <v>2948</v>
+        <v>2572</v>
       </c>
       <c r="H5">
-        <v>5.629380515975115</v>
+        <v>5.623475645995756</v>
       </c>
       <c r="I5">
-        <v>1.303847854931446</v>
+        <v>1.306246825799898</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.303847854931446</v>
+        <v>1.306246825799898</v>
       </c>
       <c r="L5">
-        <v>7.339855710347033</v>
+        <v>7.345647212544989</v>
       </c>
       <c r="M5">
-        <v>5.629380515975115</v>
+        <v>5.623475645995756</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -752,28 +752,28 @@
         <v>132</v>
       </c>
       <c r="F6">
-        <v>8.146739711310651</v>
+        <v>7.913354447175068</v>
       </c>
       <c r="G6">
-        <v>2934</v>
+        <v>2564</v>
       </c>
       <c r="H6">
-        <v>6.278043110863457</v>
+        <v>6.076987093013926</v>
       </c>
       <c r="I6">
-        <v>1.29765590446705</v>
+        <v>1.302183849669883</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>171.2905793896506</v>
+        <v>171.8882681564246</v>
       </c>
       <c r="L6">
-        <v>1075.369641893006</v>
+        <v>1044.562787027109</v>
       </c>
       <c r="M6">
-        <v>828.7016906339763</v>
+        <v>802.1622962778383</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,28 +793,28 @@
         <v>147</v>
       </c>
       <c r="F7">
-        <v>8.392871508974606</v>
+        <v>8.348362069425509</v>
       </c>
       <c r="G7">
-        <v>2991</v>
+        <v>2633</v>
       </c>
       <c r="H7">
-        <v>6.344460876560208</v>
+        <v>6.243040225863587</v>
       </c>
       <c r="I7">
-        <v>1.322865988500664</v>
+        <v>1.337227018791265</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>194.4613003095975</v>
+        <v>196.5723717623159</v>
       </c>
       <c r="L7">
-        <v>1233.752111819267</v>
+        <v>1227.20922420555</v>
       </c>
       <c r="M7">
-        <v>932.6357488543506</v>
+        <v>917.7269132019474</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -834,28 +834,28 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>8.449436424506292</v>
+        <v>8.221318795176488</v>
       </c>
       <c r="G8">
-        <v>3007</v>
+        <v>2622</v>
       </c>
       <c r="H8">
-        <v>6.353234371735526</v>
+        <v>6.173827882418957</v>
       </c>
       <c r="I8">
-        <v>1.329942503317116</v>
+        <v>1.331640426612494</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.329942503317116</v>
+        <v>1.331640426612494</v>
       </c>
       <c r="L8">
-        <v>8.449436424506292</v>
+        <v>8.221318795176488</v>
       </c>
       <c r="M8">
-        <v>6.353234371735526</v>
+        <v>6.173827882418957</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -875,28 +875,28 @@
         <v>79</v>
       </c>
       <c r="F9">
-        <v>8.308972040212121</v>
+        <v>7.980249119799053</v>
       </c>
       <c r="G9">
-        <v>2946</v>
+        <v>2571</v>
       </c>
       <c r="H9">
-        <v>6.376980917487985</v>
+        <v>6.111672702016467</v>
       </c>
       <c r="I9">
-        <v>1.30296329057939</v>
+        <v>1.305738953783647</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>102.9340999557718</v>
+        <v>103.1533773489081</v>
       </c>
       <c r="L9">
-        <v>656.4087911767575</v>
+        <v>630.4396804641252</v>
       </c>
       <c r="M9">
-        <v>503.7814924815508</v>
+        <v>482.8221434593009</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -916,28 +916,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10.33986683513122</v>
+        <v>9.910488639560532</v>
       </c>
       <c r="G10">
-        <v>2997</v>
+        <v>2627</v>
       </c>
       <c r="H10">
-        <v>7.800613584995561</v>
+        <v>7.428150792270531</v>
       </c>
       <c r="I10">
-        <v>1.325519681556833</v>
+        <v>1.334179786693753</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.325519681556833</v>
+        <v>1.334179786693753</v>
       </c>
       <c r="L10">
-        <v>10.33986683513122</v>
+        <v>9.910488639560532</v>
       </c>
       <c r="M10">
-        <v>7.800613584995561</v>
+        <v>7.428150792270531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -957,28 +957,28 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>10.17095399398047</v>
+        <v>9.910985372965103</v>
       </c>
       <c r="G11">
-        <v>2936</v>
+        <v>2587</v>
       </c>
       <c r="H11">
-        <v>7.832604557353489</v>
+        <v>7.543382373161302</v>
       </c>
       <c r="I11">
-        <v>1.298540468819107</v>
+        <v>1.313864906043677</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>98.68907563025211</v>
+        <v>99.85373285931945</v>
       </c>
       <c r="L11">
-        <v>772.9925035425159</v>
+        <v>753.2348883453478</v>
       </c>
       <c r="M11">
-        <v>595.2779463588652</v>
+        <v>573.2970603602589</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -998,28 +998,28 @@
         <v>79</v>
       </c>
       <c r="F12">
-        <v>10.38242590916942</v>
+        <v>10.09075797534314</v>
       </c>
       <c r="G12">
-        <v>3253</v>
+        <v>2848</v>
       </c>
       <c r="H12">
-        <v>7.216312628537371</v>
+        <v>6.976370243486882</v>
       </c>
       <c r="I12">
-        <v>1.43874391862008</v>
+        <v>1.446419502285424</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>113.6607695709863</v>
+        <v>114.2671406805485</v>
       </c>
       <c r="L12">
-        <v>820.2116468243845</v>
+        <v>797.1698800521078</v>
       </c>
       <c r="M12">
-        <v>570.0886976544523</v>
+        <v>551.1332492354636</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1039,28 +1039,28 @@
         <v>76</v>
       </c>
       <c r="F13">
-        <v>10.35474506092288</v>
+        <v>10.23308501388002</v>
       </c>
       <c r="G13">
-        <v>3243</v>
+        <v>2853</v>
       </c>
       <c r="H13">
-        <v>7.219265674605809</v>
+        <v>7.062370975229499</v>
       </c>
       <c r="I13">
-        <v>1.434321096859797</v>
+        <v>1.448958862366684</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>109.0084033613445</v>
+        <v>110.120873539868</v>
       </c>
       <c r="L13">
-        <v>786.960624630139</v>
+        <v>777.7144610548816</v>
       </c>
       <c r="M13">
-        <v>548.6641912700414</v>
+        <v>536.7401941174419</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1080,28 +1080,28 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>11.35741011934108</v>
+        <v>11.26234055139716</v>
       </c>
       <c r="G14">
-        <v>3533</v>
+        <v>3077</v>
       </c>
       <c r="H14">
-        <v>7.268356716623321</v>
+        <v>7.20687310552519</v>
       </c>
       <c r="I14">
-        <v>1.562582927908005</v>
+        <v>1.56272219400711</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.562582927908005</v>
+        <v>1.56272219400711</v>
       </c>
       <c r="L14">
-        <v>11.35741011934108</v>
+        <v>11.26234055139716</v>
       </c>
       <c r="M14">
-        <v>7.268356716623321</v>
+        <v>7.20687310552519</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1121,28 +1121,28 @@
         <v>79</v>
       </c>
       <c r="F15">
-        <v>10.3061842301787</v>
+        <v>9.763369114105</v>
       </c>
       <c r="G15">
-        <v>3651</v>
+        <v>3152</v>
       </c>
       <c r="H15">
-        <v>6.382438385218858</v>
+        <v>6.099008180733739</v>
       </c>
       <c r="I15">
-        <v>1.614772224679345</v>
+        <v>1.600812595226003</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>127.5670057496683</v>
+        <v>126.4641950228542</v>
       </c>
       <c r="L15">
-        <v>814.1885541841176</v>
+        <v>771.306160014295</v>
       </c>
       <c r="M15">
-        <v>504.2126324322898</v>
+        <v>481.8216462779653</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1162,28 +1162,28 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>10.49999450621463</v>
+        <v>10.14222549633459</v>
       </c>
       <c r="G16">
-        <v>3713</v>
+        <v>3232</v>
       </c>
       <c r="H16">
-        <v>6.393882999879149</v>
+        <v>6.178849629419187</v>
       </c>
       <c r="I16">
-        <v>1.6421937195931</v>
+        <v>1.641442356526155</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.6421937195931</v>
+        <v>1.641442356526155</v>
       </c>
       <c r="L16">
-        <v>10.49999450621463</v>
+        <v>10.14222549633459</v>
       </c>
       <c r="M16">
-        <v>6.393882999879149</v>
+        <v>6.178849629419187</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1203,28 +1203,28 @@
         <v>76</v>
       </c>
       <c r="F17">
-        <v>10.36260656644125</v>
+        <v>9.830991079764885</v>
       </c>
       <c r="G17">
-        <v>3653</v>
+        <v>3157</v>
       </c>
       <c r="H17">
-        <v>6.413866259710831</v>
+        <v>6.131524053233151</v>
       </c>
       <c r="I17">
-        <v>1.615656789031402</v>
+        <v>1.603351955307263</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>122.7899159663865</v>
+        <v>121.854748603352</v>
       </c>
       <c r="L17">
-        <v>787.5580990495349</v>
+        <v>747.1553220621313</v>
       </c>
       <c r="M17">
-        <v>487.4538357380231</v>
+        <v>465.9958280457195</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1244,28 +1244,28 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>10.28541348685198</v>
+        <v>9.738062816362618</v>
       </c>
       <c r="G18">
-        <v>3647</v>
+        <v>3145</v>
       </c>
       <c r="H18">
-        <v>6.37656152831706</v>
+        <v>6.096739486619394</v>
       </c>
       <c r="I18">
-        <v>1.613003095975232</v>
+        <v>1.59725749111224</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.613003095975232</v>
+        <v>1.59725749111224</v>
       </c>
       <c r="L18">
-        <v>10.28541348685198</v>
+        <v>9.738062816362618</v>
       </c>
       <c r="M18">
-        <v>6.37656152831706</v>
+        <v>6.096739486619394</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1285,28 +1285,28 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>11.38345753309828</v>
+        <v>10.9494993547776</v>
       </c>
       <c r="G19">
-        <v>3987</v>
+        <v>3448</v>
       </c>
       <c r="H19">
-        <v>6.455479679542314</v>
+        <v>6.252773848479438</v>
       </c>
       <c r="I19">
-        <v>1.763379035824856</v>
+        <v>1.751142712036567</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.763379035824856</v>
+        <v>1.751142712036567</v>
       </c>
       <c r="L19">
-        <v>11.38345753309828</v>
+        <v>10.9494993547776</v>
       </c>
       <c r="M19">
-        <v>6.455479679542314</v>
+        <v>6.252773848479438</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1326,28 +1326,28 @@
         <v>79</v>
       </c>
       <c r="F20">
-        <v>11.97047365771821</v>
+        <v>11.62123039411345</v>
       </c>
       <c r="G20">
-        <v>3715</v>
+        <v>3221</v>
       </c>
       <c r="H20">
-        <v>7.285394600296329</v>
+        <v>7.104067881406204</v>
       </c>
       <c r="I20">
-        <v>1.643078283945157</v>
+        <v>1.635855764347385</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>129.8031844316674</v>
+        <v>129.2326053834434</v>
       </c>
       <c r="L20">
-        <v>945.6674189597383</v>
+        <v>918.0772011349626</v>
       </c>
       <c r="M20">
-        <v>575.54617342341</v>
+        <v>561.2213626310901</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>12.14361176300139</v>
+        <v>11.94320005439988</v>
       </c>
       <c r="G21">
-        <v>3777</v>
+        <v>3283</v>
       </c>
       <c r="H21">
-        <v>7.269448291275123</v>
+        <v>7.163009718889239</v>
       </c>
       <c r="I21">
-        <v>1.670499778858912</v>
+        <v>1.667343829355002</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.670499778858912</v>
+        <v>1.667343829355002</v>
       </c>
       <c r="L21">
-        <v>12.14361176300139</v>
+        <v>11.94320005439988</v>
       </c>
       <c r="M21">
-        <v>7.269448291275123</v>
+        <v>7.163009718889239</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1408,28 +1408,28 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>11.96337606491591</v>
+        <v>11.61358314261581</v>
       </c>
       <c r="G22">
-        <v>3707</v>
+        <v>3224</v>
       </c>
       <c r="H22">
-        <v>7.296788044989174</v>
+        <v>7.092786975127335</v>
       </c>
       <c r="I22">
-        <v>1.639540026536931</v>
+        <v>1.63737938039614</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.639540026536931</v>
+        <v>1.63737938039614</v>
       </c>
       <c r="L22">
-        <v>11.96337606491591</v>
+        <v>11.61358314261581</v>
       </c>
       <c r="M22">
-        <v>7.296788044989174</v>
+        <v>7.092786975127335</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1449,28 +1449,28 @@
         <v>76</v>
       </c>
       <c r="F23">
-        <v>11.95846416864866</v>
+        <v>11.63965104678763</v>
       </c>
       <c r="G23">
-        <v>3709</v>
+        <v>3222</v>
       </c>
       <c r="H23">
-        <v>7.289859122489786</v>
+        <v>7.113120084147994</v>
       </c>
       <c r="I23">
-        <v>1.640424590888987</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>124.672268907563</v>
+        <v>124.3636363636364</v>
       </c>
       <c r="L23">
-        <v>908.843276817298</v>
+        <v>884.6134795558596</v>
       </c>
       <c r="M23">
-        <v>554.0292933092237</v>
+        <v>540.5971263952475</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -1490,28 +1490,28 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>12.9492694175518</v>
+        <v>12.76617436743496</v>
       </c>
       <c r="G24">
-        <v>3998</v>
+        <v>3467</v>
       </c>
       <c r="H24">
-        <v>7.32323615634933</v>
+        <v>7.250244398465371</v>
       </c>
       <c r="I24">
-        <v>1.768244139761168</v>
+        <v>1.760792280345353</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.768244139761168</v>
+        <v>1.760792280345353</v>
       </c>
       <c r="L24">
-        <v>12.9492694175518</v>
+        <v>12.76617436743496</v>
       </c>
       <c r="M24">
-        <v>7.32323615634933</v>
+        <v>7.250244398465371</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -1528,25 +1528,25 @@
         <v>1183</v>
       </c>
       <c r="K25">
-        <v>1.408685554570629</v>
+        <v>1.413206475518465</v>
       </c>
       <c r="L25">
-        <v>9.222706957701837</v>
+        <v>9.017655240489418</v>
       </c>
       <c r="M25">
-        <v>6.547030263622559</v>
+        <v>6.380989187854589</v>
       </c>
       <c r="N25">
-        <v>39.83675658889262</v>
+        <v>38.33003213189104</v>
       </c>
       <c r="O25">
-        <v>2261</v>
+        <v>1969</v>
       </c>
       <c r="P25">
         <v>0.02</v>
       </c>
       <c r="Q25">
-        <v>0.02121440785693962</v>
+        <v>0.02213064849579605</v>
       </c>
       <c r="R25" t="s">
         <v>44</v>
